--- a/data/new_orders.xlsx
+++ b/data/new_orders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\Documents\PAMGMT\economics\data\ism-manufacturing\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\OneDrive\PAMGMT\Economics\data\ism-manufacturing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -109,20 +109,18 @@
         <stp>PX_LAST</stp>
         <stp>1/1/1900</stp>
         <stp/>
-        <stp>[new-orders-index.xlsx]Sheet1!R7C1</stp>
+        <stp>[new_orders.xlsx]Sheet1!R7C1</stp>
         <stp>Dir=V</stp>
         <stp>Per=M</stp>
         <stp>Dts=S</stp>
-        <stp>cols=2;rows=864</stp>
+        <stp>cols=2;rows=869</stp>
         <tr r="A7" s="1"/>
       </tp>
-    </main>
-    <main first="bloomberg.rtd">
       <tp t="s">
         <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[new-orders-index.xlsx]Sheet1!R5C2</stp>
+        <stp>[new_orders.xlsx]Sheet1!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
       </tp>
@@ -394,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B870"/>
+  <dimension ref="A1:B875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +432,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=864")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=869")</f>
         <v>17563</v>
       </c>
       <c r="B7">
@@ -6582,7 +6580,7 @@
         <v>40939</v>
       </c>
       <c r="B775">
-        <v>56.8</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
@@ -6590,7 +6588,7 @@
         <v>40968</v>
       </c>
       <c r="B776">
-        <v>57.4</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
@@ -6598,7 +6596,7 @@
         <v>40999</v>
       </c>
       <c r="B777">
-        <v>56.5</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
@@ -6606,7 +6604,7 @@
         <v>41029</v>
       </c>
       <c r="B778">
-        <v>57.2</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -6614,7 +6612,7 @@
         <v>41060</v>
       </c>
       <c r="B779">
-        <v>57.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
@@ -6622,7 +6620,7 @@
         <v>41090</v>
       </c>
       <c r="B780">
-        <v>47.2</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
@@ -6630,7 +6628,7 @@
         <v>41121</v>
       </c>
       <c r="B781">
-        <v>48.3</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +6636,7 @@
         <v>41152</v>
       </c>
       <c r="B782">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
@@ -6646,7 +6644,7 @@
         <v>41182</v>
       </c>
       <c r="B783">
-        <v>53.5</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
@@ -6654,7 +6652,7 @@
         <v>41213</v>
       </c>
       <c r="B784">
-        <v>51</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -6662,7 +6660,7 @@
         <v>41243</v>
       </c>
       <c r="B785">
-        <v>49.6</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
@@ -6670,7 +6668,7 @@
         <v>41274</v>
       </c>
       <c r="B786">
-        <v>48.9</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
@@ -6686,7 +6684,7 @@
         <v>41333</v>
       </c>
       <c r="B788">
-        <v>56.9</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
@@ -6694,7 +6692,7 @@
         <v>41364</v>
       </c>
       <c r="B789">
-        <v>52.6</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -6702,7 +6700,7 @@
         <v>41394</v>
       </c>
       <c r="B790">
-        <v>51</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
@@ -6710,7 +6708,7 @@
         <v>41425</v>
       </c>
       <c r="B791">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
@@ -6718,7 +6716,7 @@
         <v>41455</v>
       </c>
       <c r="B792">
-        <v>52.5</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
@@ -6726,7 +6724,7 @@
         <v>41486</v>
       </c>
       <c r="B793">
-        <v>54.8</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -6734,7 +6732,7 @@
         <v>41517</v>
       </c>
       <c r="B794">
-        <v>62.7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
@@ -6742,7 +6740,7 @@
         <v>41547</v>
       </c>
       <c r="B795">
-        <v>60.2</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
@@ -6750,7 +6748,7 @@
         <v>41578</v>
       </c>
       <c r="B796">
-        <v>57.9</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
@@ -6758,7 +6756,7 @@
         <v>41608</v>
       </c>
       <c r="B797">
-        <v>60.6</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
@@ -6766,7 +6764,7 @@
         <v>41639</v>
       </c>
       <c r="B798">
-        <v>65</v>
+        <v>64.900000000000006</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
@@ -6774,7 +6772,7 @@
         <v>41670</v>
       </c>
       <c r="B799">
-        <v>53.2</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -6782,7 +6780,7 @@
         <v>41698</v>
       </c>
       <c r="B800">
-        <v>57.1</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -6790,7 +6788,7 @@
         <v>41729</v>
       </c>
       <c r="B801">
-        <v>57</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
@@ -6798,7 +6796,7 @@
         <v>41759</v>
       </c>
       <c r="B802">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -6806,7 +6804,7 @@
         <v>41790</v>
       </c>
       <c r="B803">
-        <v>57.9</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
@@ -6814,7 +6812,7 @@
         <v>41820</v>
       </c>
       <c r="B804">
-        <v>56.4</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -6822,7 +6820,7 @@
         <v>41851</v>
       </c>
       <c r="B805">
-        <v>57.4</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
@@ -6830,7 +6828,7 @@
         <v>41882</v>
       </c>
       <c r="B806">
-        <v>64.8</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
@@ -6838,7 +6836,7 @@
         <v>41912</v>
       </c>
       <c r="B807">
-        <v>57.9</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -6846,7 +6844,7 @@
         <v>41943</v>
       </c>
       <c r="B808">
-        <v>60.9</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
@@ -6854,7 +6852,7 @@
         <v>41973</v>
       </c>
       <c r="B809">
-        <v>62.4</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
@@ -6862,7 +6860,7 @@
         <v>42004</v>
       </c>
       <c r="B810">
-        <v>56.9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
@@ -6870,7 +6868,7 @@
         <v>42035</v>
       </c>
       <c r="B811">
-        <v>54.4</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -6878,7 +6876,7 @@
         <v>42063</v>
       </c>
       <c r="B812">
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
@@ -6886,7 +6884,7 @@
         <v>42094</v>
       </c>
       <c r="B813">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
@@ -6894,7 +6892,7 @@
         <v>42124</v>
       </c>
       <c r="B814">
-        <v>53.1</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
@@ -6902,7 +6900,7 @@
         <v>42155</v>
       </c>
       <c r="B815">
-        <v>53.9</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
@@ -6910,7 +6908,7 @@
         <v>42185</v>
       </c>
       <c r="B816">
-        <v>52.6</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -6918,7 +6916,7 @@
         <v>42216</v>
       </c>
       <c r="B817">
-        <v>52.8</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
@@ -6926,7 +6924,7 @@
         <v>42247</v>
       </c>
       <c r="B818">
-        <v>52.2</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -6934,7 +6932,7 @@
         <v>42277</v>
       </c>
       <c r="B819">
-        <v>49.7</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
@@ -6942,7 +6940,7 @@
         <v>42308</v>
       </c>
       <c r="B820">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
@@ -6950,7 +6948,7 @@
         <v>42338</v>
       </c>
       <c r="B821">
-        <v>50.2</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
@@ -6966,7 +6964,7 @@
         <v>42400</v>
       </c>
       <c r="B823">
-        <v>50.6</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -6974,7 +6972,7 @@
         <v>42429</v>
       </c>
       <c r="B824">
-        <v>52.5</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
@@ -6982,7 +6980,7 @@
         <v>42460</v>
       </c>
       <c r="B825">
-        <v>55</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
@@ -6990,7 +6988,7 @@
         <v>42490</v>
       </c>
       <c r="B826">
-        <v>55.1</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
@@ -6998,7 +6996,7 @@
         <v>42521</v>
       </c>
       <c r="B827">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
@@ -7006,7 +7004,7 @@
         <v>42551</v>
       </c>
       <c r="B828">
-        <v>56.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
@@ -7014,7 +7012,7 @@
         <v>42582</v>
       </c>
       <c r="B829">
-        <v>56.8</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
@@ -7022,7 +7020,7 @@
         <v>42613</v>
       </c>
       <c r="B830">
-        <v>50.2</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
@@ -7030,7 +7028,7 @@
         <v>42643</v>
       </c>
       <c r="B831">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
@@ -7038,7 +7036,7 @@
         <v>42674</v>
       </c>
       <c r="B832">
-        <v>53.7</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
@@ -7046,7 +7044,7 @@
         <v>42704</v>
       </c>
       <c r="B833">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
@@ -7054,7 +7052,7 @@
         <v>42735</v>
       </c>
       <c r="B834">
-        <v>59.5</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
@@ -7062,7 +7060,7 @@
         <v>42766</v>
       </c>
       <c r="B835">
-        <v>60</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -7070,7 +7068,7 @@
         <v>42794</v>
       </c>
       <c r="B836">
-        <v>64</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -7078,7 +7076,7 @@
         <v>42825</v>
       </c>
       <c r="B837">
-        <v>62.3</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
@@ -7086,7 +7084,7 @@
         <v>42855</v>
       </c>
       <c r="B838">
-        <v>57.6</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
@@ -7094,7 +7092,7 @@
         <v>42886</v>
       </c>
       <c r="B839">
-        <v>59.6</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
@@ -7102,7 +7100,7 @@
         <v>42916</v>
       </c>
       <c r="B840">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
@@ -7110,7 +7108,7 @@
         <v>42947</v>
       </c>
       <c r="B841">
-        <v>61.2</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
@@ -7118,7 +7116,7 @@
         <v>42978</v>
       </c>
       <c r="B842">
-        <v>61.4</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
@@ -7126,7 +7124,7 @@
         <v>43008</v>
       </c>
       <c r="B843">
-        <v>64.099999999999994</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
@@ -7142,7 +7140,7 @@
         <v>43069</v>
       </c>
       <c r="B845">
-        <v>63.6</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
@@ -7150,7 +7148,7 @@
         <v>43100</v>
       </c>
       <c r="B846">
-        <v>67.3</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -7158,7 +7156,7 @@
         <v>43131</v>
       </c>
       <c r="B847">
-        <v>65.2</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -7166,7 +7164,7 @@
         <v>43159</v>
       </c>
       <c r="B848">
-        <v>64.3</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
@@ -7174,7 +7172,7 @@
         <v>43190</v>
       </c>
       <c r="B849">
-        <v>62.4</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
@@ -7182,7 +7180,7 @@
         <v>43220</v>
       </c>
       <c r="B850">
-        <v>61.7</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
@@ -7190,7 +7188,7 @@
         <v>43251</v>
       </c>
       <c r="B851">
-        <v>62.9</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -7198,7 +7196,7 @@
         <v>43281</v>
       </c>
       <c r="B852">
-        <v>63</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
@@ -7206,7 +7204,7 @@
         <v>43312</v>
       </c>
       <c r="B853">
-        <v>60.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
@@ -7214,7 +7212,7 @@
         <v>43343</v>
       </c>
       <c r="B854">
-        <v>64.5</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
@@ -7222,7 +7220,7 @@
         <v>43373</v>
       </c>
       <c r="B855">
-        <v>61.5</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
@@ -7230,7 +7228,7 @@
         <v>43404</v>
       </c>
       <c r="B856">
-        <v>58</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
@@ -7238,7 +7236,7 @@
         <v>43434</v>
       </c>
       <c r="B857">
-        <v>61.8</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
@@ -7246,7 +7244,7 @@
         <v>43465</v>
       </c>
       <c r="B858">
-        <v>51.3</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
@@ -7254,7 +7252,7 @@
         <v>43496</v>
       </c>
       <c r="B859">
-        <v>58.2</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
@@ -7262,7 +7260,7 @@
         <v>43524</v>
       </c>
       <c r="B860">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
@@ -7270,7 +7268,7 @@
         <v>43555</v>
       </c>
       <c r="B861">
-        <v>57.4</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -7278,7 +7276,7 @@
         <v>43585</v>
       </c>
       <c r="B862">
-        <v>51.7</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
@@ -7286,7 +7284,7 @@
         <v>43616</v>
       </c>
       <c r="B863">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
@@ -7294,7 +7292,7 @@
         <v>43646</v>
       </c>
       <c r="B864">
-        <v>50</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
@@ -7302,7 +7300,7 @@
         <v>43677</v>
       </c>
       <c r="B865">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
@@ -7310,7 +7308,7 @@
         <v>43708</v>
       </c>
       <c r="B866">
-        <v>47.2</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
@@ -7318,7 +7316,7 @@
         <v>43738</v>
       </c>
       <c r="B867">
-        <v>47.3</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
@@ -7326,7 +7324,7 @@
         <v>43769</v>
       </c>
       <c r="B868">
-        <v>49.1</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
@@ -7334,7 +7332,7 @@
         <v>43799</v>
       </c>
       <c r="B869">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
@@ -7342,7 +7340,47 @@
         <v>43830</v>
       </c>
       <c r="B870">
-        <v>46.8</v>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B871">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B872">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B873">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B874">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B875">
+        <v>31.8</v>
       </c>
     </row>
   </sheetData>
